--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>914193.3694173283</v>
+        <v>903148.2316807464</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377789</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="F4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="G4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="H4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="I4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="J4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="K4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="L4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="M4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="N4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="O4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="P4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140999.2565435958</v>
+        <v>139180.4040419583</v>
       </c>
       <c r="C6" t="n">
-        <v>140999.2565435959</v>
+        <v>139180.4040419584</v>
       </c>
       <c r="D6" t="n">
-        <v>140999.256543596</v>
+        <v>139180.4040419584</v>
       </c>
       <c r="E6" t="n">
-        <v>-21491.42456073127</v>
+        <v>-22569.28588345269</v>
       </c>
       <c r="F6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
       <c r="G6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
       <c r="H6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
       <c r="I6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
       <c r="J6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
       <c r="K6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
       <c r="L6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
       <c r="M6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
       <c r="N6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
       <c r="O6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
       <c r="P6" t="n">
-        <v>111608.5754392688</v>
+        <v>110530.7141165473</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>903148.2316807464</v>
+        <v>916874.5898181642</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377789</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377789</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="E2" t="n">
         <v>171480.8222247954</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="C4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="G4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="H4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="I4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="J4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="K4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="L4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="M4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="N4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="O4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="P4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139180.4040419583</v>
+        <v>139180.4040419581</v>
       </c>
       <c r="C6" t="n">
-        <v>139180.4040419584</v>
+        <v>139180.4040419582</v>
       </c>
       <c r="D6" t="n">
-        <v>139180.4040419584</v>
+        <v>139180.4040419582</v>
       </c>
       <c r="E6" t="n">
-        <v>-22569.28588345269</v>
+        <v>-22569.28588345274</v>
       </c>
       <c r="F6" t="n">
         <v>110530.7141165473</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>916874.5898181642</v>
+        <v>833089.18805654</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377791</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377787</v>
@@ -26429,37 +26429,37 @@
         <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
+        <v>57338.49600323976</v>
+      </c>
+      <c r="G4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>57338.49600323976</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139180.4040419581</v>
+        <v>139136.2682632775</v>
       </c>
       <c r="C6" t="n">
-        <v>139180.4040419582</v>
+        <v>139136.2682632773</v>
       </c>
       <c r="D6" t="n">
-        <v>139180.4040419582</v>
+        <v>139136.2682632771</v>
       </c>
       <c r="E6" t="n">
-        <v>-22569.28588345274</v>
+        <v>-37379.30272256664</v>
       </c>
       <c r="F6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
       <c r="G6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
       <c r="H6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
       <c r="I6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
       <c r="J6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
       <c r="K6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
       <c r="L6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
       <c r="M6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
       <c r="N6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
       <c r="O6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
       <c r="P6" t="n">
-        <v>110530.7141165473</v>
+        <v>95720.69727743343</v>
       </c>
     </row>
   </sheetData>
